--- a/ЗАВОДЫ/ПОКОМ/ОПТы/2025/09,25/29,09,25 Бутырин  на погрузку с филиалами на 04,09,25/Бутырин Д.В 07.10.2025.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/ОПТы/2025/09,25/29,09,25 Бутырин  на погрузку с филиалами на 04,09,25/Бутырин Д.В 07.10.2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\29,09,25 Бутырин  на погрузку с филиалами на 04,09,25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\ОПТы\2025\09,25\29,09,25 Бутырин  на погрузку с филиалами на 04,09,25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEA6144-EECA-4813-8AC4-FB5EB44BD3FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9855A3-EF66-4880-BE57-C5202DE25633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1712,7 +1712,7 @@
   <dimension ref="A1:V474"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
